--- a/artfynd/A 28408-2019.xlsx
+++ b/artfynd/A 28408-2019.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70752145</v>
+        <v>70744400</v>
       </c>
       <c r="B3" t="n">
-        <v>96355</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219862</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>703256.005931965</v>
+        <v>703206.0057106519</v>
       </c>
       <c r="R3" t="n">
-        <v>6626085.902598036</v>
+        <v>6626260.055830983</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70744400</v>
+        <v>70743844</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,41 +927,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703206.0057106519</v>
+        <v>703367.1782205966</v>
       </c>
       <c r="R4" t="n">
-        <v>6626260.055830983</v>
+        <v>6626265.819183424</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1006,12 +1005,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På grenar på levande gammal gran.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1030,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70743844</v>
+        <v>70744212</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>103265</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,40 +1047,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>703367.1782205966</v>
+        <v>703273.8314362012</v>
       </c>
       <c r="R5" t="n">
-        <v>6626265.819183424</v>
+        <v>6626260.218834675</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1120,18 +1126,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>På grenar på levande gammal gran.</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>70752141</v>
+        <v>86555940</v>
       </c>
       <c r="B6" t="n">
-        <v>89410</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,43 +1162,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Myrorna, N om, Upl</t>
+          <t>Myrorna, N om (*knärot* /stjälk/), Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703256.005931965</v>
+        <v>703206.7403017445</v>
       </c>
       <c r="R6" t="n">
-        <v>6626085.902598036</v>
+        <v>6626265.149522305</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1220,6 +1218,11 @@
           <t>Frötuna</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>AB-Nor-1742</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2018-04-18</t>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På högstubbe av gran. Gammal barrblandskog. Inslag av försumpade fuktdråg och kalkpåverkad mark.</t>
+          <t>Obs: Flera dellokaler. Se privata obsar! Myrorna, N om, Obskoord: 6626090/1658024/10 m (). Enstaka fynd. Gammal barrblandskog. Delvis fuktdråg och kalkpåverkad mark.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1251,29 +1254,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jan Yngve Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Kjell  Andersson, Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70744212</v>
+        <v>70752145</v>
       </c>
       <c r="B7" t="n">
-        <v>103265</v>
+        <v>96355</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,21 +1292,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>219862</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1319,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703273.8314362012</v>
+        <v>703256.005931965</v>
       </c>
       <c r="R7" t="n">
-        <v>6626260.218834675</v>
+        <v>6626085.902598036</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1385,10 +1391,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86555940</v>
+        <v>70752141</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,41 +1403,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Myrorna, N om (*knärot* /stjälk/), Upl</t>
+          <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703206.7403017445</v>
+        <v>703256.005931965</v>
       </c>
       <c r="R8" t="n">
-        <v>6626265.149522305</v>
+        <v>6626085.902598036</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1453,11 +1461,6 @@
           <t>Frötuna</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>AB-Nor-1742</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2018-04-18</t>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Obs: Flera dellokaler. Se privata obsar! Myrorna, N om, Obskoord: 6626090/1658024/10 m (). Enstaka fynd. Gammal barrblandskog. Delvis fuktdråg och kalkpåverkad mark.</t>
+          <t>På högstubbe av gran. Gammal barrblandskog. Inslag av försumpade fuktdråg och kalkpåverkad mark.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1489,25 +1492,22 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jan Yngve Andersson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kjell  Andersson, Bo Törnquist</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Bo Törnquist, Kjell  Andersson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 28408-2019.xlsx
+++ b/artfynd/A 28408-2019.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70744400</v>
+        <v>70752145</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>96355</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>219862</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>703206.0057106519</v>
+        <v>703256.005931965</v>
       </c>
       <c r="R3" t="n">
-        <v>6626260.055830983</v>
+        <v>6626085.902598036</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70743844</v>
+        <v>70744400</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,40 +927,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703367.1782205966</v>
+        <v>703206.0057106519</v>
       </c>
       <c r="R4" t="n">
-        <v>6626265.819183424</v>
+        <v>6626260.055830983</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1005,18 +1006,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På grenar på levande gammal gran.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1035,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70744212</v>
+        <v>70743844</v>
       </c>
       <c r="B5" t="n">
-        <v>103265</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,41 +1042,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>703273.8314362012</v>
+        <v>703367.1782205966</v>
       </c>
       <c r="R5" t="n">
-        <v>6626260.218834675</v>
+        <v>6626265.819183424</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1126,12 +1120,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>På grenar på levande gammal gran.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86555940</v>
+        <v>70752141</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,41 +1162,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Myrorna, N om (*knärot* /stjälk/), Upl</t>
+          <t>Myrorna, N om, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703206.7403017445</v>
+        <v>703256.005931965</v>
       </c>
       <c r="R6" t="n">
-        <v>6626265.149522305</v>
+        <v>6626085.902598036</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,11 +1220,6 @@
           <t>Frötuna</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>AB-Nor-1742</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2018-04-18</t>
@@ -1245,7 +1242,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Obs: Flera dellokaler. Se privata obsar! Myrorna, N om, Obskoord: 6626090/1658024/10 m (). Enstaka fynd. Gammal barrblandskog. Delvis fuktdråg och kalkpåverkad mark.</t>
+          <t>På högstubbe av gran. Gammal barrblandskog. Inslag av försumpade fuktdråg och kalkpåverkad mark.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1254,32 +1251,29 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jan Yngve Andersson</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kjell  Andersson, Bo Törnquist</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Bo Törnquist, Kjell  Andersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70752145</v>
+        <v>70744212</v>
       </c>
       <c r="B7" t="n">
-        <v>96355</v>
+        <v>103265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,21 +1286,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219862</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1319,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703256.005931965</v>
+        <v>703273.8314362012</v>
       </c>
       <c r="R7" t="n">
-        <v>6626085.902598036</v>
+        <v>6626260.218834675</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1391,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70752141</v>
+        <v>86555940</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1403,43 +1397,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Myrorna, N om, Upl</t>
+          <t>Myrorna, N om (*knärot* /stjälk/), Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703256.005931965</v>
+        <v>703206.7403017445</v>
       </c>
       <c r="R8" t="n">
-        <v>6626085.902598036</v>
+        <v>6626265.149522305</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1461,6 +1453,11 @@
           <t>Frötuna</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>AB-Nor-1742</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>2018-04-18</t>
@@ -1483,7 +1480,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På högstubbe av gran. Gammal barrblandskog. Inslag av försumpade fuktdråg och kalkpåverkad mark.</t>
+          <t>Obs: Flera dellokaler. Se privata obsar! Myrorna, N om, Obskoord: 6626090/1658024/10 m (). Enstaka fynd. Gammal barrblandskog. Delvis fuktdråg och kalkpåverkad mark.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,22 +1489,25 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jan Yngve Andersson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+          <t>Kjell  Andersson, Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
